--- a/DB資料/テーブル設計.xlsx
+++ b/DB資料/テーブル設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamad\Desktop\work_presentation\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamad\Desktop\work_presentation\DB資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4423A06-3FB3-4C2D-9ABA-034C02FA2C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD99D59-A70B-4B69-B7A7-73A5899E66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>テーブル定義(例)</t>
   </si>
   <si>
-    <t>農作者</t>
-  </si>
-  <si>
-    <t>収穫</t>
-  </si>
-  <si>
-    <t>*農作者ID</t>
-  </si>
-  <si>
     <t>農耕地ID</t>
   </si>
   <si>
@@ -46,69 +37,21 @@
     <t>日付</t>
   </si>
   <si>
-    <t>*収穫ID</t>
-  </si>
-  <si>
-    <t>機械ID</t>
-  </si>
-  <si>
-    <t>収穫数</t>
-  </si>
-  <si>
     <t>山田</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>今枝</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>桝井</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>吉田</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>岡本</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>農耕地</t>
-  </si>
-  <si>
-    <t>機械</t>
-  </si>
-  <si>
-    <t>温度・湿度</t>
-  </si>
-  <si>
-    <t>*農耕地ID</t>
-  </si>
-  <si>
-    <t>農作物ID</t>
-  </si>
-  <si>
-    <t>*機械ID</t>
-  </si>
-  <si>
-    <t>機械番号</t>
-  </si>
-  <si>
-    <t>*温度湿度ID</t>
-  </si>
-  <si>
     <t>温度データ</t>
   </si>
   <si>
@@ -116,9 +59,6 @@
   </si>
   <si>
     <t>固有番号</t>
-  </si>
-  <si>
-    <t>所有テーブルを作るべき</t>
   </si>
   <si>
     <r>
@@ -283,15 +223,104 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>未収穫</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
+    <t>aaaa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eeee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>farmland</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>agrist</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>unharvest</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>harvest</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>machine</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>temphum</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>crops</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ピーマン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジャンボピーマン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トマト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>crops_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>machine_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pthoto_num</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>farmland_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>agrist_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>*</t>
+      <t>possession(</t>
     </r>
     <r>
       <rPr>
@@ -301,17 +330,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>未</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>収穫</t>
+      <t>中間テーブル</t>
     </r>
     <r>
       <rPr>
@@ -320,18 +339,109 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ID</t>
+      <t>)</t>
     </r>
-    <rPh sb="1" eb="2">
-      <t>ミ</t>
+    <rPh sb="11" eb="13">
+      <t>チュウカン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>未収穫数</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
+    <r>
+      <t>planting(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間テーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>チュウカン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>planting_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>農作地A</t>
+    <rPh sb="0" eb="2">
+      <t>ノウサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>農作地B</t>
+    <rPh sb="0" eb="2">
+      <t>ノウサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>農作地C</t>
+    <rPh sb="0" eb="2">
+      <t>ノウサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>農作地D</t>
+    <rPh sb="0" eb="2">
+      <t>ノウサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>農作地E</t>
+    <rPh sb="0" eb="2">
+      <t>ノウサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>machine_num(string)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>photoid</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>amount</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -339,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +491,19 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -542,21 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -585,6 +693,34 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -718,11 +854,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -792,83 +1038,131 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,6 +1179,522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03F23A4-96CA-8AE6-A646-F73933C49C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="6610350"/>
+          <a:ext cx="838200" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3322BFC-96A6-06E1-0139-BDB08CC6B859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="819150" y="4448175"/>
+          <a:ext cx="752475" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3ADA1D-6E94-25F9-66CC-1D44C748AC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="2209800"/>
+          <a:ext cx="2076450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135ACB5A-9A79-9DE8-F841-608AB1775903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="704850" y="8791575"/>
+          <a:ext cx="1847850" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1D5025-BC91-C39A-1D51-C0C139FEDE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2143125" y="8829675"/>
+          <a:ext cx="4895850" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58042FA-1D53-AF81-FAC7-CEF53D2AF184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="8839200"/>
+          <a:ext cx="857250" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895AADEB-F6C3-6925-54BC-B0550E6EA8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628650" y="13925550"/>
+          <a:ext cx="4267200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A577530D-AB35-4F9C-BDA7-077C02AC9615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="657225" y="13935075"/>
+          <a:ext cx="10467975" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97886940-1335-4D43-B069-4DFC65261FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="6600825"/>
+          <a:ext cx="7381875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="円弧 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15965E8F-0E7A-9DE8-9DC1-6B0C46737363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1409700" y="6096000"/>
+          <a:ext cx="5543550" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10808108"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,152 +1985,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.375" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="F2" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="32"/>
       <c r="K2"/>
-      <c r="L2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:20" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
-        <v>10</v>
-      </c>
-      <c r="I4" s="41">
-        <v>44914</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="33">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16">
-        <v>10</v>
-      </c>
-      <c r="O4" s="41">
-        <v>44914</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1328,44 +2065,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="33">
-        <v>2</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16">
         <v>20</v>
       </c>
-      <c r="I5" s="28">
-        <v>44914</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>35</v>
-      </c>
       <c r="K5"/>
-      <c r="L5" s="33">
-        <v>2</v>
-      </c>
-      <c r="M5" s="16">
-        <v>2</v>
-      </c>
-      <c r="N5" s="16">
-        <v>20</v>
-      </c>
-      <c r="O5" s="28">
-        <v>44914</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1373,44 +2080,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="33">
-        <v>3</v>
-      </c>
-      <c r="G6" s="16">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16">
-        <v>30</v>
-      </c>
-      <c r="I6" s="28">
-        <v>44914</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K6"/>
-      <c r="L6" s="33">
-        <v>3</v>
-      </c>
-      <c r="M6" s="16">
-        <v>3</v>
-      </c>
-      <c r="N6" s="16">
-        <v>30</v>
-      </c>
-      <c r="O6" s="28">
-        <v>44914</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1418,44 +2095,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="33">
-        <v>4</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4</v>
-      </c>
-      <c r="H7" s="16">
-        <v>40</v>
-      </c>
-      <c r="I7" s="28">
-        <v>44914</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K7"/>
-      <c r="L7" s="33">
-        <v>4</v>
-      </c>
-      <c r="M7" s="16">
-        <v>4</v>
-      </c>
-      <c r="N7" s="16">
-        <v>40</v>
-      </c>
-      <c r="O7" s="28">
-        <v>44914</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -1463,284 +2110,893 @@
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>1</v>
+      </c>
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="51">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="51">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16">
+        <v>4</v>
+      </c>
+      <c r="C15" s="51">
+        <v>4</v>
+      </c>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:20" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>5</v>
+      </c>
+      <c r="B16" s="33">
+        <v>5</v>
+      </c>
+      <c r="C16" s="52">
+        <v>5</v>
+      </c>
+      <c r="M16"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="40"/>
+    </row>
+    <row r="17" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="40"/>
+    </row>
+    <row r="18" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="59"/>
+      <c r="F18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="8"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="40"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="U19" s="44"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>1</v>
+      </c>
+      <c r="B20" s="48">
+        <v>1</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16">
+        <v>23</v>
+      </c>
+      <c r="I20" s="16">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="J20" s="19">
+        <v>44914</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="40"/>
+    </row>
+    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <v>24</v>
+      </c>
+      <c r="I21" s="16">
         <v>20</v>
       </c>
-      <c r="F8" s="35">
+      <c r="J21" s="19">
+        <v>44914</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="40"/>
+    </row>
+    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>3</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3</v>
+      </c>
+      <c r="G22" s="16">
+        <v>3</v>
+      </c>
+      <c r="H22" s="16">
+        <v>25</v>
+      </c>
+      <c r="I22" s="16">
+        <v>30</v>
+      </c>
+      <c r="J22" s="19">
+        <v>44914</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="U22" s="44"/>
+    </row>
+    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="F23" s="15">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4</v>
+      </c>
+      <c r="H23" s="16">
+        <v>23</v>
+      </c>
+      <c r="I23" s="16">
+        <v>40</v>
+      </c>
+      <c r="J23" s="19">
+        <v>44914</v>
+      </c>
+      <c r="U23" s="44"/>
+    </row>
+    <row r="24" spans="1:22" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32">
         <v>5</v>
       </c>
-      <c r="G8" s="36">
+      <c r="B24" s="33">
+        <v>1</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20">
         <v>5</v>
       </c>
-      <c r="H8" s="36">
+      <c r="G24" s="21">
+        <v>5</v>
+      </c>
+      <c r="H24" s="21">
+        <v>20</v>
+      </c>
+      <c r="I24" s="21">
         <v>50</v>
       </c>
-      <c r="I8" s="42">
+      <c r="J24" s="24">
         <v>44915</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40"/>
+      <c r="E25" s="3"/>
+      <c r="F25"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26"/>
+      <c r="E26" s="3"/>
+      <c r="F26"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27"/>
+      <c r="E27" s="3"/>
+      <c r="F27"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="E28" s="45"/>
+      <c r="F28"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="8"/>
+      <c r="G29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="7"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>1</v>
+      </c>
+      <c r="B31" s="48">
+        <v>1</v>
+      </c>
+      <c r="C31" s="48">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19">
+        <v>44914</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="D32" s="19">
+        <v>44914</v>
+      </c>
+      <c r="G32" s="15">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16">
+        <v>3</v>
+      </c>
+      <c r="D33" s="19">
+        <v>44914</v>
+      </c>
+      <c r="G33" s="15">
+        <v>3</v>
+      </c>
+      <c r="H33" s="16">
+        <v>3</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16">
+        <v>4</v>
+      </c>
+      <c r="D34" s="19">
+        <v>44914</v>
+      </c>
+      <c r="G34" s="15">
+        <v>4</v>
+      </c>
+      <c r="H34" s="16">
+        <v>4</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32">
+        <v>5</v>
+      </c>
+      <c r="B35" s="33">
+        <v>5</v>
+      </c>
+      <c r="C35" s="33">
+        <v>5</v>
+      </c>
+      <c r="D35" s="24">
+        <v>44915</v>
+      </c>
+      <c r="G35" s="20">
+        <v>5</v>
+      </c>
+      <c r="H35" s="21">
+        <v>5</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="54"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>1</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>2</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32">
+        <v>3</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="28"/>
+      <c r="G56" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K8"/>
-      <c r="L8" s="35">
+      <c r="C57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="68">
+        <v>1</v>
+      </c>
+      <c r="B58" s="69">
+        <v>1</v>
+      </c>
+      <c r="C58" s="69">
+        <v>10</v>
+      </c>
+      <c r="D58" s="37">
+        <v>44914</v>
+      </c>
+      <c r="E58" s="70">
+        <v>1</v>
+      </c>
+      <c r="G58" s="68">
+        <v>1</v>
+      </c>
+      <c r="H58" s="69">
+        <v>1</v>
+      </c>
+      <c r="I58" s="69">
+        <v>10</v>
+      </c>
+      <c r="J58" s="37">
+        <v>44914</v>
+      </c>
+      <c r="K58" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>2</v>
+      </c>
+      <c r="B59" s="16">
+        <v>2</v>
+      </c>
+      <c r="C59" s="16">
+        <v>20</v>
+      </c>
+      <c r="D59" s="25">
+        <v>44914</v>
+      </c>
+      <c r="E59" s="51">
+        <v>2</v>
+      </c>
+      <c r="G59" s="30">
+        <v>2</v>
+      </c>
+      <c r="H59" s="16">
+        <v>2</v>
+      </c>
+      <c r="I59" s="16">
+        <v>20</v>
+      </c>
+      <c r="J59" s="25">
+        <v>44914</v>
+      </c>
+      <c r="K59" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>3</v>
+      </c>
+      <c r="B60" s="16">
+        <v>3</v>
+      </c>
+      <c r="C60" s="16">
+        <v>30</v>
+      </c>
+      <c r="D60" s="25">
+        <v>44914</v>
+      </c>
+      <c r="E60" s="51">
+        <v>3</v>
+      </c>
+      <c r="G60" s="30">
+        <v>3</v>
+      </c>
+      <c r="H60" s="16">
+        <v>3</v>
+      </c>
+      <c r="I60" s="16">
+        <v>30</v>
+      </c>
+      <c r="J60" s="25">
+        <v>44914</v>
+      </c>
+      <c r="K60" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>4</v>
+      </c>
+      <c r="B61" s="16">
+        <v>4</v>
+      </c>
+      <c r="C61" s="16">
+        <v>40</v>
+      </c>
+      <c r="D61" s="25">
+        <v>44914</v>
+      </c>
+      <c r="E61" s="51">
+        <v>4</v>
+      </c>
+      <c r="G61" s="30">
+        <v>4</v>
+      </c>
+      <c r="H61" s="16">
+        <v>4</v>
+      </c>
+      <c r="I61" s="16">
+        <v>40</v>
+      </c>
+      <c r="J61" s="25">
+        <v>44914</v>
+      </c>
+      <c r="K61" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="32">
         <v>5</v>
       </c>
-      <c r="M8" s="36">
+      <c r="B62" s="33">
         <v>5</v>
       </c>
-      <c r="N8" s="36">
+      <c r="C62" s="33">
         <v>50</v>
       </c>
-      <c r="O8" s="42">
+      <c r="D62" s="38">
         <v>44915</v>
       </c>
-      <c r="P8" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="E62" s="52">
+        <v>5</v>
+      </c>
+      <c r="G62" s="32">
+        <v>5</v>
+      </c>
+      <c r="H62" s="33">
+        <v>5</v>
+      </c>
+      <c r="I62" s="33">
+        <v>50</v>
+      </c>
+      <c r="J62" s="38">
+        <v>44915</v>
+      </c>
+      <c r="K62" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>1</v>
+      </c>
+      <c r="B68" s="16">
+        <v>1</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>2</v>
+      </c>
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>3</v>
+      </c>
+      <c r="B70" s="16">
+        <v>3</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
         <v>4</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="B71" s="16">
         <v>4</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>1</v>
-      </c>
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16">
-        <v>23</v>
-      </c>
-      <c r="N12" s="16">
-        <v>19</v>
-      </c>
-      <c r="O12" s="19">
-        <v>44914</v>
-      </c>
-      <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>1</v>
-      </c>
-      <c r="B13" s="27">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>2</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="K13" s="15">
-        <v>2</v>
-      </c>
-      <c r="L13" s="16">
-        <v>2</v>
-      </c>
-      <c r="M13" s="16">
-        <v>24</v>
-      </c>
-      <c r="N13" s="16">
-        <v>20</v>
-      </c>
-      <c r="O13" s="19">
-        <v>44914</v>
-      </c>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>3</v>
-      </c>
-      <c r="B14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15">
-        <v>3</v>
-      </c>
-      <c r="G14" s="16">
-        <v>3</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="K14" s="15">
-        <v>3</v>
-      </c>
-      <c r="L14" s="16">
-        <v>3</v>
-      </c>
-      <c r="M14" s="16">
-        <v>25</v>
-      </c>
-      <c r="N14" s="16">
-        <v>30</v>
-      </c>
-      <c r="O14" s="19">
-        <v>44914</v>
-      </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="45"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="27">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="16">
-        <v>4</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="K15" s="15">
-        <v>4</v>
-      </c>
-      <c r="L15" s="16">
-        <v>4</v>
-      </c>
-      <c r="M15" s="16">
-        <v>23</v>
-      </c>
-      <c r="N15" s="16">
-        <v>40</v>
-      </c>
-      <c r="O15" s="19">
-        <v>44914</v>
-      </c>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="C71" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20">
         <v>5</v>
       </c>
-      <c r="B16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="B72" s="21">
         <v>5</v>
       </c>
-      <c r="G16" s="21">
-        <v>5</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="K16" s="20">
-        <v>5</v>
-      </c>
-      <c r="L16" s="21">
-        <v>5</v>
-      </c>
-      <c r="M16" s="21">
-        <v>20</v>
-      </c>
-      <c r="N16" s="21">
-        <v>50</v>
-      </c>
-      <c r="O16" s="24">
-        <v>44915</v>
-      </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="I21" s="50"/>
-      <c r="P21" s="45"/>
+      <c r="C72" s="34" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>